--- a/municipal/ENG/Main Information/Administrative structure/Adjara/Khelvachauri.xlsx
+++ b/municipal/ENG/Main Information/Administrative structure/Adjara/Khelvachauri.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\Administrative structure\adjara\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\Number of settlements\Number of settlements\adjara\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13440" windowHeight="9960"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12030" windowHeight="11505"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="Khelvachauri" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,15 +24,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>By January 1, 2022 (unit)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Administrative status of a local government unit </t>
-  </si>
-  <si>
-    <t>Code</t>
   </si>
   <si>
     <t>City</t>
@@ -41,23 +35,20 @@
     <t>Village</t>
   </si>
   <si>
-    <t>Administrative structure of Khelvachauri Municipality</t>
-  </si>
-  <si>
-    <t>268 15 32</t>
-  </si>
-  <si>
     <t>Borough</t>
   </si>
   <si>
     <t>Administrative unit</t>
+  </si>
+  <si>
+    <t>Khelvachauri Municipality</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,11 +65,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
@@ -86,11 +72,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -149,33 +130,29 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -458,15 +435,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G13"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="65.85546875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="36.5703125" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="25.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.2">
@@ -481,69 +460,55 @@
       <c r="G1" s="1"/>
     </row>
     <row r="2" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A7" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="3">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="3">
+      <c r="B6" s="2">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="10"/>
+    <row r="8" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+    </row>
+    <row r="10" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9"/>
     </row>
     <row r="11" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="10"/>
-    </row>
-    <row r="12" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="11"/>
-    </row>
-    <row r="13" spans="1:7" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="11"/>
+      <c r="A11" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
